--- a/CSC530_reading_schedule_Wi2017.xlsx
+++ b/CSC530_reading_schedule_Wi2017.xlsx
@@ -165,10 +165,6 @@
   </si>
   <si>
     <t xml:space="preserve">- Think Python, Chp 2-3, 5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Think Python, Chp 6-7
 </t>
   </si>
   <si>
@@ -264,6 +260,34 @@
   </si>
   <si>
     <t xml:space="preserve">Short Assignments </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Think Python, Chp 6-7
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Stan Ulam, John Von Neumann, and the Monte Carlo Method," </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eckhardt
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -842,7 +866,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +882,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -911,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>4</v>
@@ -1029,7 +1053,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="8">
         <v>42396</v>
@@ -1037,7 +1061,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="17" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1057,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1069,7 +1093,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1089,11 +1113,11 @@
         <v>11</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,7 +1128,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1118,13 +1142,13 @@
         <v>42415</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1147,11 +1171,11 @@
         <v>42422</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>13</v>
@@ -1166,7 +1190,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1205,11 +1229,11 @@
         <v>42437</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="10" t="s">
@@ -1239,7 +1263,7 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -1267,7 +1291,7 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1291,7 +1315,7 @@
         <v>42458</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>

--- a/CSC530_reading_schedule_Wi2017.xlsx
+++ b/CSC530_reading_schedule_Wi2017.xlsx
@@ -174,15 +174,8 @@
     <t xml:space="preserve">- Think Python, Chp 15 -18 </t>
   </si>
   <si>
-    <t>- Sayama, Chp 19</t>
-  </si>
-  <si>
     <t>- Think Complexity, Chp 6-7, 10
 - Sayama, Chp 11</t>
-  </si>
-  <si>
-    <t>-Wilensky, Chp 6
-- Sayama, Chp 10</t>
   </si>
   <si>
     <t>Brainstorm and Lit Review</t>
@@ -287,6 +280,37 @@
       </rPr>
       <t xml:space="preserve">Eckhardt
 </t>
+    </r>
+  </si>
+  <si>
+    <t>-Wilensky, Chp 7
+- Sayama, Chp 10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Sayama, Chp 19
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Active Nonlinear Tests (ANTs) of Complex Simulation Models", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Miller 1998</t>
     </r>
   </si>
 </sst>
@@ -865,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -935,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>4</v>
@@ -1061,7 +1085,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1113,22 +1137,22 @@
         <v>11</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="8">
         <v>42410</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="18" t="s">
-        <v>32</v>
+      <c r="E22" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1142,13 +1166,13 @@
         <v>42415</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1171,11 +1195,11 @@
         <v>42422</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>13</v>
@@ -1190,7 +1214,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -1229,11 +1253,11 @@
         <v>42437</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="10" t="s">
@@ -1263,7 +1287,7 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -1291,7 +1315,7 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1315,7 +1339,7 @@
         <v>42458</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>

--- a/CSC530_reading_schedule_Wi2017.xlsx
+++ b/CSC530_reading_schedule_Wi2017.xlsx
@@ -80,9 +80,6 @@
     <t>Presentations</t>
   </si>
   <si>
-    <t>Final Writeup</t>
-  </si>
-  <si>
     <t>Computational Focus</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
 -Think Complexity, Chp 11</t>
   </si>
   <si>
-    <t>&lt;Catch up/Open Topic Week &gt;</t>
-  </si>
-  <si>
     <t>- Sayama, Chp 16
 - &lt;Readings on SIR models&gt;</t>
   </si>
@@ -312,6 +306,24 @@
       </rPr>
       <t>Miller 1998</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Model Work Week </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- No Readings</t>
+    </r>
+  </si>
+  <si>
+    <t>Final Project Writeup Due 4/21/17</t>
   </si>
 </sst>
 </file>
@@ -525,9 +537,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,6 +551,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,16 +899,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="15"/>
-    <col min="2" max="2" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="8.85546875" style="14"/>
+    <col min="2" max="2" width="8.85546875" style="15"/>
     <col min="3" max="3" width="45.85546875" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="80.28515625" customWidth="1"/>
@@ -906,7 +918,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -953,13 +965,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>4</v>
@@ -999,13 +1011,13 @@
         <v>42380</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>20</v>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1017,8 +1029,8 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="17" t="s">
-        <v>21</v>
+      <c r="E10" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1032,13 +1044,13 @@
         <v>42387</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>22</v>
+      <c r="E12" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1050,8 +1062,8 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="18" t="s">
-        <v>23</v>
+      <c r="E13" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="G13" s="7"/>
     </row>
@@ -1064,13 +1076,13 @@
         <v>42394</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>29</v>
+      <c r="E15" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>8</v>
@@ -1084,8 +1096,8 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="17" t="s">
-        <v>45</v>
+      <c r="E16" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1099,13 +1111,13 @@
         <v>42401</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>30</v>
+      <c r="E18" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1116,8 +1128,8 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="18" t="s">
-        <v>31</v>
+      <c r="E19" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1131,17 +1143,17 @@
         <v>42408</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>46</v>
+      <c r="E21" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1151,8 +1163,8 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="17" t="s">
-        <v>47</v>
+      <c r="E22" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1166,13 +1178,13 @@
         <v>42415</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>32</v>
+      <c r="E24" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1187,7 +1199,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -1195,31 +1207,27 @@
         <v>42422</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="19" t="s">
-        <v>38</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="8">
         <v>42424</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="17" t="s">
-        <v>37</v>
-      </c>
+      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>9</v>
@@ -1238,13 +1246,10 @@
       <c r="B31" s="5">
         <v>42432</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>10</v>
@@ -1253,25 +1258,27 @@
         <v>42437</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="17" t="s">
-        <v>41</v>
+      <c r="E33" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="8">
         <v>42439</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
@@ -1283,10 +1290,10 @@
         <v>42444</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="7"/>
@@ -1311,11 +1318,11 @@
         <v>42451</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="17" t="s">
-        <v>42</v>
+      <c r="E37" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1331,18 +1338,20 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>13</v>
       </c>
       <c r="B39" s="8">
         <v>42458</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
@@ -1411,15 +1420,15 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="14" t="s">
-        <v>18</v>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A32:XFD32"/>
     <mergeCell ref="A1:G4"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A11:XFD11"/>
